--- a/config.xlsx
+++ b/config.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Traslado tesorería Bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Traslado de tesoreria B5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{913D1B18-456E-4536-9AEB-D8503F3E5847}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59408293-7925-4A7A-97D7-872B7B1B3723}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="sapLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="Rutas" sheetId="1" r:id="rId1"/>
+    <sheet name="parametrosInicio" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,20 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
   </si>
   <si>
-    <t>Path xlsx CUENTAS</t>
-  </si>
-  <si>
     <t>Path SAP logon</t>
   </si>
   <si>
-    <t>Path migraciones</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -63,19 +57,19 @@
     <t>botpruebas**</t>
   </si>
   <si>
-    <t>C:\Users\crist\OneDrive - UNIVERSIDAD NACIONAL DE INGENIERIA\Venado\Cris\Traslado tesorería Bot\Migraciones\MIGRACIONES SGV OCTUBRE 2022 18.10.2022.xlsx</t>
-  </si>
-  <si>
-    <t>Sheet name - Migraciones</t>
-  </si>
-  <si>
-    <t>Sheet name - Cuentas recaudadoras</t>
-  </si>
-  <si>
-    <t>CAJAS RECAUDADORAS</t>
-  </si>
-  <si>
-    <t>C:\Users\crist\OneDrive - UNIVERSIDAD NACIONAL DE INGENIERIA\Venado\Cris\Traslado tesorería Bot\Cuentas recaudadoras\CUENTAS DE CAJA IVSA.xlsx</t>
+    <t>ambiente</t>
+  </si>
+  <si>
+    <t>QAS - EHP8 on HANA</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>30.10.2022</t>
   </si>
 </sst>
 </file>
@@ -137,6 +131,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288CF779-B90E-47AA-B022-B9419930CC24}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,41 +446,12 @@
     <col min="2" max="2" width="150.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -493,34 +462,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{4226FCAE-17BE-43C1-8323-4716E33646D1}">
+      <formula1>"QAS - EHP8 on HANA,PRD SAP HANA"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Traslado de tesoreria B5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59408293-7925-4A7A-97D7-872B7B1B3723}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3762C517-030E-4E01-AFE9-11CC5D45E565}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Periodo</t>
-  </si>
-  <si>
-    <t>30.10.2022</t>
   </si>
 </sst>
 </file>
@@ -465,7 +462,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,16 +499,10 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Traslado de tesoreria B5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3762C517-030E-4E01-AFE9-11CC5D45E565}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2129411F-2B86-4A03-BE4E-7806ED7633C2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
-  </si>
-  <si>
     <t>Path SAP logon</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Periodo</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
   </si>
 </sst>
 </file>
@@ -128,10 +128,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,22 +429,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288CF779-B90E-47AA-B022-B9419930CC24}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="150.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="150.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -461,48 +457,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Traslado de tesoreria B5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2129411F-2B86-4A03-BE4E-7806ED7633C2}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD4A1C5B-2E41-4C87-8825-94A1C091B931}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -48,25 +48,25 @@
     <t>psw</t>
   </si>
   <si>
-    <t>BOT</t>
-  </si>
-  <si>
-    <t>botpruebas**</t>
-  </si>
-  <si>
     <t>ambiente</t>
   </si>
   <si>
-    <t>QAS - EHP8 on HANA</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>Periodo</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+    <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>miturralde</t>
+  </si>
+  <si>
+    <t>PRD SAP HANA</t>
+  </si>
+  <si>
+    <t>Robot2022**</t>
   </si>
 </sst>
 </file>
@@ -128,6 +128,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,22 +433,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288CF779-B90E-47AA-B022-B9419930CC24}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="150.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="150.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -457,48 +461,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Traslado de tesoreria B5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD4A1C5B-2E41-4C87-8825-94A1C091B931}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97258E5-3F4E-4117-8A73-44DE9C467676}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-21720" yWindow="570" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Path SAP logon</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Robot2022**</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>/PDDPROD</t>
   </si>
 </sst>
 </file>
@@ -128,10 +134,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,10 +461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +507,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{4226FCAE-17BE-43C1-8323-4716E33646D1}">

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Traslado de tesoreria B5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97258E5-3F4E-4117-8A73-44DE9C467676}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E97B259-41D9-4A45-9E38-DCD80E0FDB71}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="570" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Periodo</t>
   </si>
   <si>
-    <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
-  </si>
-  <si>
     <t>miturralde</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>/PDDPROD</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288CF779-B90E-47AA-B022-B9419930CC24}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,10 +509,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E97B259-41D9-4A45-9E38-DCD80E0FDB71}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05700938-82EC-471A-9825-E4B6F34FDB9B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-21720" yWindow="570" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -37,20 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Path SAP logon</t>
   </si>
   <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>psw</t>
-  </si>
-  <si>
-    <t>ambiente</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -72,7 +63,28 @@
     <t>/PDDPROD</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+    <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>Validacion</t>
+  </si>
+  <si>
+    <t>Tipo de cuenta</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Psw</t>
+  </si>
+  <si>
+    <t>Ambiente</t>
+  </si>
+  <si>
+    <t>CUENTA ETV</t>
+  </si>
+  <si>
+    <t>ASIG, FECHA, IMP, NOMBRE</t>
   </si>
 </sst>
 </file>
@@ -94,15 +106,21 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -110,15 +128,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,6 +248,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288CF779-B90E-47AA-B022-B9419930CC24}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -461,66 +579,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{4226FCAE-17BE-43C1-8323-4716E33646D1}">
       <formula1>"QAS - EHP8 on HANA,PRD SAP HANA"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{C5291CB6-0084-4CC3-9C5E-361A1D88F029}">
+      <formula1>"/PDDPROD,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{D905C084-1D64-4350-A734-5EF856E55928}">
+      <formula1>"CUENTA ETV,CUENTA BANCO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{0AA5F1D2-3DAF-4A01-9417-89DF51F06204}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>"ASIG, FECHA, IMP, NOMBRE","FECHA, IMP, NOMBRE"</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"ASIG, FECHA, IMP, NOMBRE,FECHA, IMP, NOMBRE"</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05700938-82EC-471A-9825-E4B6F34FDB9B}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5A28B48-CA13-4D1C-A565-64F390137DC7}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="570" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,10 @@
     <t>Ambiente</t>
   </si>
   <si>
+    <t>FECHA, IMP, NOMBRE</t>
+  </si>
+  <si>
     <t>CUENTA ETV</t>
-  </si>
-  <si>
-    <t>ASIG, FECHA, IMP, NOMBRE</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5A28B48-CA13-4D1C-A565-64F390137DC7}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC07EA28-A6F9-47C5-BFEF-97C2319F4525}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Path SAP logon</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>CUENTA ETV</t>
+  </si>
+  <si>
+    <t>xlsx Migración</t>
+  </si>
+  <si>
+    <t>MIGRACIONES SGV DICIEMBRE 2022 28.12.2022</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,11 +224,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -233,6 +265,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,16 +613,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,6 +685,15 @@
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC07EA28-A6F9-47C5-BFEF-97C2319F4525}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CAD7218-622F-4954-9961-BBF076759D60}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-21720" yWindow="570" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Path SAP logon</t>
   </si>
@@ -66,12 +66,6 @@
     <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
   </si>
   <si>
-    <t>Validacion</t>
-  </si>
-  <si>
-    <t>Tipo de cuenta</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -79,12 +73,6 @@
   </si>
   <si>
     <t>Ambiente</t>
-  </si>
-  <si>
-    <t>FECHA, IMP, NOMBRE</t>
-  </si>
-  <si>
-    <t>CUENTA ETV</t>
   </si>
   <si>
     <t>xlsx Migración</t>
@@ -126,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -250,11 +238,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -267,6 +285,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -635,7 +655,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -643,7 +663,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -663,60 +683,31 @@
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>17</v>
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{4226FCAE-17BE-43C1-8323-4716E33646D1}">
       <formula1>"QAS - EHP8 on HANA,PRD SAP HANA"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{C5291CB6-0084-4CC3-9C5E-361A1D88F029}">
       <formula1>"/PDDPROD,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{D905C084-1D64-4350-A734-5EF856E55928}">
-      <formula1>"CUENTA ETV,CUENTA BANCO"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{0AA5F1D2-3DAF-4A01-9417-89DF51F06204}">
-      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x12ac">
-          <x12ac:list>"ASIG, FECHA, IMP, NOMBRE","FECHA, IMP, NOMBRE"</x12ac:list>
-        </mc:Choice>
-        <mc:Fallback>
-          <formula1>"ASIG, FECHA, IMP, NOMBRE,FECHA, IMP, NOMBRE"</formula1>
-        </mc:Fallback>
-      </mc:AlternateContent>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CAD7218-622F-4954-9961-BBF076759D60}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC53538-F9F2-4246-9F1E-EBC1CE234E90}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="570" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>/PDDPROD</t>
   </si>
   <si>
-    <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>MIGRACIONES SGV DICIEMBRE 2022 28.12.2022</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
   </si>
 </sst>
 </file>
@@ -302,10 +302,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288CF779-B90E-47AA-B022-B9419930CC24}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -635,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -647,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -655,7 +651,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -663,7 +659,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -694,10 +690,10 @@
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC53538-F9F2-4246-9F1E-EBC1CE234E90}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23BFE5DB-40AA-4DB4-8011-FC64B17A25F8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="4110" yWindow="2010" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>xlsx Migración</t>
   </si>
   <si>
-    <t>MIGRACIONES SGV DICIEMBRE 2022 28.12.2022</t>
-  </si>
-  <si>
     <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>MIGRACIONES SGV ENERO 2023 10.01.2023</t>
   </si>
 </sst>
 </file>
@@ -302,6 +302,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,7 +597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -603,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288CF779-B90E-47AA-B022-B9419930CC24}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -631,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23BFE5DB-40AA-4DB4-8011-FC64B17A25F8}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC86442-FFBF-439F-97E5-8BB81B4F1377}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="2010" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC86442-FFBF-439F-97E5-8BB81B4F1377}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BDF4409-2C37-41A8-A11D-868B60655423}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Path SAP logon</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>MIGRACIONES SGV ENERO 2023 10.01.2023</t>
+  </si>
+  <si>
+    <t>Cntdad feriados</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -268,11 +271,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -287,6 +305,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,15 +653,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D572AF7-C0B1-48C5-8294-DB042ACF598C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -700,14 +720,25 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{4226FCAE-17BE-43C1-8323-4716E33646D1}">
       <formula1>"QAS - EHP8 on HANA,PRD SAP HANA"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{C5291CB6-0084-4CC3-9C5E-361A1D88F029}">
       <formula1>"/PDDPROD,"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{517151B9-AD32-477D-9EC0-6C9AF697719D}">
+      <formula1>"0,1,2,3"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BDF4409-2C37-41A8-A11D-868B60655423}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06370C05-C167-465E-9F69-017CEE749B83}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -322,10 +322,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,7 +613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -656,7 +652,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +721,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06370C05-C167-465E-9F69-017CEE749B83}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29B8438D-7288-4E9B-B969-DF637EEF23CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Path SAP logon</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Cntdad feriados</t>
+  </si>
+  <si>
+    <t>31.01.2023</t>
   </si>
 </sst>
 </file>
@@ -322,6 +325,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,7 +659,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,13 +697,17 @@
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29B8438D-7288-4E9B-B969-DF637EEF23CE}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FDE1BC-0F96-4177-8A45-C7B82A3A8564}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Path SAP logon</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Cntdad feriados</t>
-  </si>
-  <si>
-    <t>31.01.2023</t>
   </si>
 </sst>
 </file>
@@ -325,10 +322,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,7 +613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,7 +652,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,17 +690,13 @@
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <v>10</v>
-      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FDE1BC-0F96-4177-8A45-C7B82A3A8564}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59446D07-D0EC-4103-9099-B6667A9F3F2F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +721,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FDE1BC-0F96-4177-8A45-C7B82A3A8564}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E16D95C-A8D5-448D-B2AC-13D77F2CBE3A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
@@ -78,10 +78,10 @@
     <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
   </si>
   <si>
-    <t>MIGRACIONES SGV ENERO 2023 10.01.2023</t>
-  </si>
-  <si>
     <t>Cntdad feriados</t>
+  </si>
+  <si>
+    <t>MIGRACIONES SGV ENERO 2023 06.02.2023</t>
   </si>
 </sst>
 </file>
@@ -652,13 +652,15 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,12 +715,12 @@
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="13">
         <v>0</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59446D07-D0EC-4103-9099-B6667A9F3F2F}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{043D3BA5-C743-47C9-BE7E-43CFFBC259C7}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,10 @@
     <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
   </si>
   <si>
-    <t>MIGRACIONES SGV ENERO 2023 10.01.2023</t>
-  </si>
-  <si>
     <t>Cntdad feriados</t>
+  </si>
+  <si>
+    <t>MIGRACIONES SGV ENERO 2023 06.02.2023</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,12 +713,12 @@
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{043D3BA5-C743-47C9-BE7E-43CFFBC259C7}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB2F20AC-BFF4-4BA8-9246-5741AF5008AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Cntdad feriados</t>
   </si>
   <si>
-    <t>MIGRACIONES SGV ENERO 2023 06.02.2023</t>
+    <t>PARA BOOT MIGRACIONES SGV ENERO 2023 16.02.2023</t>
   </si>
 </sst>
 </file>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB2F20AC-BFF4-4BA8-9246-5741AF5008AC}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E960F65A-4515-45D6-8E21-F68697AAC28F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Cntdad feriados</t>
   </si>
   <si>
-    <t>PARA BOOT MIGRACIONES SGV ENERO 2023 16.02.2023</t>
+    <t>MIGRACIONES SGV ENERO 2023 22.02.2023</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E960F65A-4515-45D6-8E21-F68697AAC28F}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88442CEA-790C-4468-8AAC-4D0EDBC92117}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="19365" windowHeight="10200" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>Cntdad feriados</t>
   </si>
   <si>
-    <t>MIGRACIONES SGV ENERO 2023 22.02.2023</t>
+    <t>MIGRACIONES SGV FEBRERO 2023 23.02.2023</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88442CEA-790C-4468-8AAC-4D0EDBC92117}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1064A86C-9A86-4912-94D5-2C9702F518B0}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="19365" windowHeight="10200" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutas" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>Cntdad feriados</t>
   </si>
   <si>
-    <t>MIGRACIONES SGV FEBRERO 2023 23.02.2023</t>
+    <t>MIGRACIONES SGV FEBRERO 2023 28.02.2023</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -307,6 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +653,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +691,7 @@
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1064A86C-9A86-4912-94D5-2C9702F518B0}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86012845-40E5-4F83-BA4B-35EE828FB78A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Cntdad feriados</t>
   </si>
   <si>
-    <t>MIGRACIONES SGV FEBRERO 2023 28.02.2023</t>
+    <t>MIGRACIONES SGV MARZO 2023 15.03.2023 BOOT 5</t>
   </si>
 </sst>
 </file>
@@ -653,13 +653,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86012845-40E5-4F83-BA4B-35EE828FB78A}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{CC3E9899-0839-4122-9C1F-71EEB74DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A61BDF0B-9811-4EBC-B929-EF8ACE880AE7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91CFA281-0435-4FD3-9986-03D61E002608}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Path SAP logon</t>
   </si>
@@ -81,7 +81,10 @@
     <t>Cntdad feriados</t>
   </si>
   <si>
-    <t>MIGRACIONES SGV MARZO 2023 15.03.2023 BOOT 5</t>
+    <t>MIGRACIONES SGV MARZO 2023 30.03.2023</t>
+  </si>
+  <si>
+    <t>31.03.2023</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +658,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,13 +696,17 @@
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
